--- a/biology/Biologie cellulaire et moléculaire/Transgène/Transgène.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Transgène/Transgène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transg%C3%A8ne</t>
+          <t>Transgène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un transgène est la séquence isolée d'un gène, transférée d'un organisme à un autre, lors de la mise en œuvre de la transgenèse. Cette modification peut altérer le comportement génétique de l'organisme (p. ex. production d'une nouvelle protéine). En agronomie, on parle de gène d’intérêt permettant de faire exprimer à un organisme un caractère choisi ; par exemple, on peut chercher à rendre une plante résistante à un antibiotique ou à augmenter sa teneur en vitamines.
 Souvent, mais pas toujours, le transgène provient d'une espèce différente de celle du receveur.
